--- a/DataDriven/BaseData.xlsx
+++ b/DataDriven/BaseData.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11250" windowHeight="6015" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="6015" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="AddEmployee" sheetId="2" r:id="rId2"/>
     <sheet name="EditEmployee_personal" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
-    <sheet name="EditEmployement_Details" sheetId="4" r:id="rId5"/>
-    <sheet name="EditEmployement_History" sheetId="5" r:id="rId6"/>
-    <sheet name="Statutory_details" sheetId="6" r:id="rId7"/>
-    <sheet name="Editemployeeall" sheetId="7" r:id="rId8"/>
+    <sheet name="EditPayrollTemplate" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId5"/>
+    <sheet name="EditEmployement_Details" sheetId="4" r:id="rId6"/>
+    <sheet name="EditEmployement_History" sheetId="5" r:id="rId7"/>
+    <sheet name="Statutory_details" sheetId="6" r:id="rId8"/>
+    <sheet name="Editemployeeall" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G18"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="133">
   <si>
     <t>UserName</t>
   </si>
@@ -91,9 +92,6 @@
 Chandrika</t>
   </si>
   <si>
-    <t>9952400457</t>
-  </si>
-  <si>
     <t>06/04/1993</t>
   </si>
   <si>
@@ -398,13 +396,40 @@
   </si>
   <si>
     <t>34314189089</t>
+  </si>
+  <si>
+    <t>Logesh</t>
+  </si>
+  <si>
+    <t>9952400502</t>
+  </si>
+  <si>
+    <t>Sharath</t>
+  </si>
+  <si>
+    <t>9952400503</t>
+  </si>
+  <si>
+    <t>TemplateName</t>
+  </si>
+  <si>
+    <t>New Default Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic </t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>Conveyance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -430,6 +455,19 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -439,7 +477,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -462,11 +500,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,6 +568,14 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +836,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -842,49 +903,49 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -892,49 +953,49 @@
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +1010,9 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -959,67 +1022,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1033,123 +1096,123 @@
         <v>21</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="H2" s="11">
         <v>9976902512</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10">
         <v>9952400458</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="H3" s="11">
         <v>9976902512</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1158,6 +1221,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="21">
+        <v>5</v>
+      </c>
+      <c r="C2" s="21">
+        <v>5</v>
+      </c>
+      <c r="D2" s="21">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1169,7 +1282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1188,19 +1301,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>13</v>
@@ -1212,30 +1325,30 @@
         <v>15</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="D2" s="13">
         <v>15000</v>
@@ -1244,39 +1357,39 @@
         <v>25</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="D3" s="13">
         <v>15000</v>
@@ -1285,28 +1398,28 @@
         <v>25</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1327,71 +1440,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1412,51 +1525,51 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="13">
         <v>662979721547</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="13">
         <v>662979721547</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="13">
         <v>1234567</v>
@@ -1465,30 +1578,30 @@
         <v>34314189089</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="13">
         <v>662979721547</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="13">
         <v>662979721547</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="13">
         <v>1234567</v>
@@ -1497,13 +1610,13 @@
         <v>34314189089</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1519,7 +1632,7 @@
   <dimension ref="A1:AU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1533,76 +1646,76 @@
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="V1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="Y1" s="12" t="s">
         <v>13</v>
@@ -1614,350 +1727,350 @@
         <v>15</v>
       </c>
       <c r="AB1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="AD1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="AE1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="AG1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AL1" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="AM1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AU1" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="AU1" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" s="18" t="s">
+      <c r="X2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="X2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK2" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL2" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AN2" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ2" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="AN2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AR2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS2" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="AQ2" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR2" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS2" s="18" t="s">
+      <c r="AT2" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AT2" s="18" t="s">
+      <c r="AU2" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="AU2" s="18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="I3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="W3" s="18" t="s">
+      <c r="X3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM3" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="X3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ3" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL3" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM3" s="18" t="s">
+      <c r="AN3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="AN3" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO3" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP3" s="18" t="s">
+      <c r="AR3" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS3" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="AQ3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS3" s="18" t="s">
+      <c r="AT3" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AT3" s="18" t="s">
+      <c r="AU3" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="AU3" s="18" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
